--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_12-31.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_12-31.xlsx
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 5</t>
   </si>
   <si>
     <t>جنتيانا نقط</t>
@@ -1424,17 +1427,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1456,11 +1459,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1476,13 +1479,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1494,7 +1497,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1502,51 +1505,77 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="K34" s="10">
-        <v>1509.1400000000001</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="11">
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
         <v>49</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c t="s" r="F35" s="12">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
+        <v>13</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
         <v>50</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c t="s" r="I35" s="14">
+      <c r="M34" s="9"/>
+      <c t="s" r="N34" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="26.25" customHeight="1">
+      <c r="K35" s="10">
+        <v>1134.1400000000001</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="11">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c t="s" r="F36" s="12">
         <v>51</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c t="s" r="I36" s="14">
+        <v>52</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="104">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1644,10 +1673,13 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:N36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
